--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +464,6 @@
           <t>path_to_file</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>url_to_file</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -498,12 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>C:\Users\Belov\source\repos\hse-rpa\articles\2d5b3104-afdf-4b6b-80f9-17ea9dc0f189_dfb886b1424571f0446df10074af63c57921.pdf</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://pdfs.semanticscholar.org/f804/dfb886b1424571f0446df10074af63c57921.pdf</t>
+          <t>C:\Users\Belov\source\repos\hse-rpa\articles\dfb886b1424571f0446df10074af63c57921.pdf</t>
         </is>
       </c>
     </row>
@@ -533,10 +523,9 @@
           <t>25</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://www.aclweb.org/anthology/2020.trac-1.6.pdf</t>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>C:\Users\Belov\source\repos\hse-rpa\articles\2020.trac-1.6.pdf</t>
         </is>
       </c>
     </row>
@@ -568,12 +557,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>C:\Users\Belov\source\repos\hse-rpa\articles\b81b837d-1032-4c17-a94e-ec8861822a9e_2012.08290.pdf</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://arxiv.org/pdf/2012.08290.pdf</t>
+          <t>C:\Users\Belov\source\repos\hse-rpa\articles\2012.08290.pdf</t>
         </is>
       </c>
     </row>
@@ -605,214 +589,415 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>C:\Users\Belov\source\repos\hse-rpa\articles\1f69b880-6c45-4dee-9b0c-ef7e729733b5_531ec8e556ccb61fc9f70e9b00b1fc0ac2be.pdf</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://pdfs.semanticscholar.org/e0b8/531ec8e556ccb61fc9f70e9b00b1fc0ac2be.pdf</t>
+          <t>C:\Users\Belov\source\repos\hse-rpa\articles\531ec8e556ccb61fc9f70e9b00b1fc0ac2be.pdf</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A critical look at Chinese ‘debt-trap diplomacy’: the rise of a meme</t>
+          <t>MEME: discovering and analyzing DNA and protein sequence motifs</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">ABSTRACT In 2017, a meme was born in a think tank in northern India: Chinese ‘debt-trap diplomacy’. This meme quickly spread through the media, intelligence circles and Western governments. Within 12 months it generated nearly 2 million search results on Google in 0.52 seconds and was beginning to solidify into a deep historical truth. Stories can contain truths and falsehoods. Human emotions, including negativity bias, prime us to think in certain ways. This paper retells a series of stories about China’s international involvement, including in Angola, Djibouti, Sri Lanka and Venezuela, that challenge the media’s spin. It concludes with some suggestions about the relationship between academia and the media and policy worlds, and the need for scholars to speak ‘truth’ to ‘power’. </t>
+          <t xml:space="preserve">MEME (Multiple EM for Motif Elicitation) is one of the most widely used tools for searching for novel ‘signals’ in sets of biological sequences. Applications include the discovery of new transcription factor binding sites and protein domains. MEME works by searching for repeated, ungapped sequence patterns that occur in the DNA or protein sequences provided by the user. Users can perform MEME searches via the web server hosted by the National Biomedical Computation Resource () and several mirror sites. Through the same web server, users can also access the Motif Alignment and Search Tool to search sequence databases for matches to motifs encoded in several popular formats. By clicking on buttons in the MEME output, users can compare the motifs discovered in their input sequences with databases of known motifs, search sequence databases for matches to the motifs and display the motifs in various formats. This article describes the freely accessible web server and its architecture, and discusses ways to use MEME effectively to find new sequence patterns in biological sequences and analyze their significance. </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>D. Brautigam</t>
+          <t>T. Bailey, Nadya Williams, C. Misleh, Wilfred W. Li</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://pdfs.semanticscholar.org/e0b8/531ec8e556ccb61fc9f70e9b00b1fc0ac2be.pdf</t>
+          <t>1,964</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>C:\Users\Belov\source\repos\hse-rpa\articles\a708fdda0fafded609038d1f7ac691215c34.pdf</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MEME: discovering and analyzing DNA and protein sequence motifs</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MEME (Multiple EM for Motif Elicitation) is one of the most widely used tools for searching for novel ‘signals’ in sets of biological sequences. Applications include the discovery of new transcription factor binding sites and protein domains. MEME works by searching for repeated, ungapped sequence patterns that occur in the DNA or protein sequences provided by the user. Users can perform MEME searches via the web server hosted by the National Biomedical Computation Resource () and several mirror sites. Through the same web server, users can also access the Motif Alignment and Search Tool to search sequence databases for matches to motifs encoded in several popular formats. By clicking on buttons in the MEME output, users can compare the motifs discovered in their input sequences with databases of known motifs, search sequence databases for matches to the motifs and display the motifs in various formats. This article describes the freely accessible web server and its architecture, and discusses ways to use MEME effectively to find new sequence patterns in biological sequences and analyze their significance. </t>
-        </is>
-      </c>
+          <t>MEME-ChIP: motif analysis of large DNA datasets</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>T. Bailey, Nadya Williams, C. Misleh, Wilfred W. Li</t>
+          <t>P. Machanick, T. Bailey</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1,964</t>
+          <t>1,169</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>C:\Users\Belov\source\repos\hse-rpa\articles\43ad0579-d923-4151-a81c-3378d83147e4_a708fdda0fafded609038d1f7ac691215c34.pdf</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://pdfs.semanticscholar.org/4e66/a708fdda0fafded609038d1f7ac691215c34.pdf</t>
+          <t>C:\Users\Belov\source\repos\hse-rpa\articles\1dc5ba616195448afeea42d2aae3f19c72df.pdf</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Analysis of Facebook Meme Groups Used During the 2016 US Presidential Election</t>
+          <t>Findings of the Shared Task on Troll Meme Classification in Tamil</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Using content analysis, this study examines how citizens may use memes to share grassroots political ideas in a social media group setting during elections. Specifically, it offers a glimpse at the types of meme-related Facebook pages that emerged during the 2016 presidential election with an emphasis on representations of the two front-runner candidates—Hillary Clinton and Donald Trump. Generally, Facebook-meme pages and profile photos of both candidates were negative in tone with Trump more likely to be framed in terms of his hairstyle and facial expressions and Clinton in terms of the email scandal and her relationships with people. Political party and gender differences between these two candidates contributed to variations in representations. Study findings are important as they offer a look at grassroots use of memes during a major election and provide a general overview of Facebook user depictions of the two politicians. </t>
+          <t xml:space="preserve">The internet has facilitated its user-base with a platform to communicate and express their views without any censorship. On the other hand, this freedom of expression or free speech can be abused by its user or a troll to demean an individual or a group. Demeaning people based on their gender, sexual orientation, religious believes or any other characteristics –trolling– could cause great distress in the online community. Hence, the content posted by a troll needs to be identified and dealt with before causing any more damage. Amongst all the forms of troll content, memes are most prevalent due to their popularity and ability to propagate across cultures. A troll uses a meme to demean, attack or offend its targetted audience. In this shared task, we provide a resource (TamilMemes) that could be used to train a system capable of identifying a troll meme in the Tamil language. In our TamilMemes dataset, each meme has been categorized into either a “troll” or a “not_troll” class. Along with the meme images, we also provided the Latin transcripted text from memes. We received 10 system submissions from the participants which were evaluated using the weighted average F1-score. The system with the weighted average F1-score of 0.55 secured the first rank. </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mia Moody-Ramirez, A. Church</t>
+          <t>Shardul Suryawanshi, Bharathi Raja Chakravarthi</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://pdfs.semanticscholar.org/4e66/a708fdda0fafded609038d1f7ac691215c34.pdf</t>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>C:\Users\Belov\source\repos\hse-rpa\articles\2021.dravidianlangtech-1.16.pdf</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MEME-ChIP: motif analysis of large DNA datasets</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>Towards Increased Accessibility of Meme Images with the Help of Rich Face Emotion Captions</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">In recent years, there has been an explosion in the number of memes being created and circulated in online social networks. Despite their rapidly increasing impact on how we communicate online, meme images are virtually inaccessible to the visually impaired users. Existing automated assistive systems that were primarily devised for natural photos in social media, overlook the specific fine-grained visual details in meme images. In this paper, we concentrate on describing one such prominent visual detail: the meme face emotion. We propose a novel automated method that enables visually impaired social media users to understand and appreciate meme face emotions with the help of rich textual captions. We first collect a challenging dataset of meme face emotion captions to support future research in face emotion understanding. We design a two-stage approach that significantly outperforms baseline approaches across all the standard captioning metrics and also generates richer discriminative captions. By validating our solution with the help of visually impaired social media users, we show that our emotion captions enable them to understand and appreciate one of the most popular classes of meme images encountered on the Internet for the first time. Code, data, and models are publicly available. </t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>P. Machanick, T. Bailey</t>
+          <t>Prajwal K R, C. V. Jawahar, P. Kumaraguru</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1,169</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>C:\Users\Belov\source\repos\hse-rpa\articles\16e8cb37-caa9-45c7-bd33-665b150557bc_1dc5ba616195448afeea42d2aae3f19c72df.pdf</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://pdfs.semanticscholar.org/026b/1dc5ba616195448afeea42d2aae3f19c72df.pdf</t>
+          <t>C:\Users\Belov\source\repos\hse-rpa\articles\Meme_captioning.pdf</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Numerical simulations for stochastic meme epidemic model</t>
+          <t>Identity-related issues in meme communication</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">The primary purpose of this study is to perform the comparison of deterministic and stochastic modeling. The effect of threshold number is also observed in this model. For numerical simulations, we have developed some stochastic explicit approaches, but they are dependent on time step size. The implicitly driven explicit approach has been developed for a stochastic meme model. The proposed approach is always independent of time step size. Also, we have presented theorems in support of convergence of the proposed approach for the stochastic meme model. </t>
+          <t xml:space="preserve">Internet memes are an example of the trend of replicability and spread of discourses through the Net within today’s participatory culture. On paper, memes are instances of humorous discourse that abound on the internet, are replicated or altered, and then transmitted to other users. However, in this paper the focus is not on its humorous side, but on how every single stage of meme communication entails a greater or lesser impact on the user’s self-concept, self-awareness and overall identity. The paper addresses five stages of meme communication and possible ways in which these stages influence the user’s identity. </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>A. Raza, M. Rafiq, D. Baleanu, M. Arif</t>
+          <t>Francisco Yus</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://pdfs.semanticscholar.org/026b/1dc5ba616195448afeea42d2aae3f19c72df.pdf</t>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>C:\Users\Belov\source\repos\hse-rpa\articles\2018_Francisco-Yus_InternetPragmatics_preprint.pdf</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Compressed representation for higher-level meme space evolution: a case study on big knapsack problems</t>
+          <t>IIITK@DravidianLangTech-EACL2021: Offensive Language Identification and Meme Classification in Tamil, Malayalam and Kannada</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">In the last decades, a plethora of dedicated heuristic and meta-heuristic algorithms have been crafted to solve complex optimization problems. However, it is noted that the majority of these algorithms are restricted to instances of small to medium size only. In today’s world, with the rapid growth in communication and computation technologies, massive volumes of data are generated and stored daily, making it vital to explore learning and optimization techniques that can handle ‘big’ problems. In this paper, we take an important step in the aforementioned direction by proposing a novel, theoretically motivated compressed representation with high-level meme evolution for big optimization. In contrast to existing heuristics and meta-heuristics, which work directly on the solution space, the proposed meme evolution operates on a high-level meme space. In particular, taking knapsack problem as the case study, a meme, in the present case, represents a knowledge-block as an instruction for solving the knapsack problem. Since the size of the meme, as defined in this paper, is not strongly sensitive to the number of items in the underlying knapsack problem, the search in meme space provides a compressed form of optimization. In order to verify the effectiveness of the proposed approach we carry out a variety of numerical experiments with problem sizes ranging from the small (100 items) to the very large (10,000 items). The results provide strong encouragement for further exploration, in order to establish meme evolution as the gold standard in big optimization. </t>
+          <t xml:space="preserve">This paper describes the IIITK team’s submissions to the offensive language identification, and troll memes classification shared tasks for Dravidian languages at DravidianLangTech 2021 workshop@EACL 2021. Our best configuration for Tamil troll meme classification achieved 0.55 weighted average F1 score, and for offensive language identification, our system achieved weighted F1 scores of 0.75 for Tamil, 0.95 for Malayalam, and 0.71 for Kannada. Our rank on Tamil troll meme classification is 2, and offensive language identification in Tamil, Malayalam and Kannada are 3, 3 and 4 respectively. </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>L. Feng, Abhishek Gupta, Y. Ong</t>
+          <t>Nikhil Ghanghor, Parameswari Krishnamurthy, Sajeetha Thavareesan, R. Priyadharshini, Bharathi Raja Chakravarthi</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://pdfs.semanticscholar.org/026b/1dc5ba616195448afeea42d2aae3f19c72df.pdf</t>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>C:\Users\Belov\source\repos\hse-rpa\articles\2021.dravidianlangtech-1.30.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Automatic Discovery of Political Meme Genres with Diverse Appearances</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forms of human communication are not static -- we expect some evolution in the way information is conveyed over time because of advances in technology. One example of this phenomenon is the image-based meme, which has emerged as a dominant form of political messaging in the past decade. While originally used to spread jokes on social media, memes are now having an outsized impact on public perception of world events. A significant challenge in automatic meme analysis has been the development of a strategy to match memes from within a single genre when the appearances of the images vary. Such variation is especially common in memes exhibiting mimicry. For example, when voters perform a common hand gesture to signal their support for a candidate. In this paper we introduce a scalable automated visual recognition pipeline for discovering political meme genres of diverse appearance. This pipeline can ingest meme images from a social network, apply computer vision-based techniques to extract local features and index new images into a database, and then organize the memes into related genres. To validate this approach, we perform a large case study on the 2019 Indonesian Presidential Election using a new dataset of over two million images collected from Twitter and Instagram. Results show that this approach can discover new meme genres with visually diverse images that share common stylistic elements, paving the way forward for further work in semantic analysis and content attribution. </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>W. Theisen, Joel Brogan, Pamela Bilo Thomas, Daniel Moreira, Pascal Phoa, Tim Weninger, W. Scheirer</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>C:\Users\Belov\source\repos\hse-rpa\articles\2001.06122.pdf.crdownload</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>"You don't want to be the next meme": College Students' Workarounds to Manage Privacy in the Era of Pervasive Photography</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pervasive photography and the sharing of photos on social media pose a significant challenge to undergraduates’ ability to manage their privacy. Drawing from an interviewbased study, we find undergraduates feel a heightened state of being surveilled by their peers and rely on innovative workarounds – negotiating the terms and ways in which they will and will not be recorded by technology-wielding others – to address these challenges. We present our findings through an experience model of the life span of a photo, including an analysis of college students’ workarounds to deal with the technological challenges they encounter as they manage potential threats to privacy at each of our proposed four stages. We further propose a set of design directions that address our users’ current workarounds at each stage. We argue for a holistic perspective on privacy management that considers workarounds across all these stages. In particular, designs for privacy need to more equitably distribute the technical power of determining what happens with and to a photo among all the stakeholders of the photo, including subjects and bystanders, rather than the photographer alone. </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Y. Rashidi, Tousif Ahmed, F. Patel, Emily Fath, Apu Kapadia, Christena Nippert-Eng, N. Su</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>C:\Users\Belov\source\repos\hse-rpa\articles\rashidi-soups2018.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>UVCE-IIITT@DravidianLangTech-EACL2021: Tamil Troll Meme Classification: You need to Pay more Attention</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tamil is a Dravidian language that is commonly used and spoken in the southern part of Asia. During the 21st century and in the era of social media, memes have been a fun moment during the day to day life of people. Here, we try to analyze the true meaning of Tamil memes by classifying them as troll or non-troll. We present an ingenious model consisting of transformer-transformer architecture that tries to attain state of the art by using attention as its main component. The dataset consists of troll and non-troll images with their captions as texts. The task is a binary classification task. The objective of the model was to pay more and more attention to the extracted features and to ignore the noise in both images and text. </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Siddhanth U Hegde, Adeep Hande, R. Priyadharshini, Sajeetha Thavareesan, Bharathi Raja Chakravarthi</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>C:\Users\Belov\source\repos\hse-rpa\articles\2021.dravidianlangtech-1.24.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Meme Templates as Expressive Repertoires in a Globalizing World: A Cross-Linguistic Study</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>A. Nissenbaum, L. Shifman</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>C:\Users\Belov\source\repos\hse-rpa\articles\zmy016.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>I Can Has Cheezburger? A Nonparanormal Approach to Combining Textual and Visual Information for Predicting and Generating Popular Meme Descriptions</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The advent of social media has brought Internet memes, a unique social phenomenon, to the front stage of the Web. Embodied in the form of images with text descriptions, little do we know about the “language of memes”. In this paper, we statistically study the correlations among popular memes and their wordings, and generate meme descriptions from raw images. To do this, we take a multimodal approach—we propose a robust nonparanormal model to learn the stochastic dependencies among the image, the candidate descriptions, and the popular votes. In experiments, we show that combining text and vision helps identifying popular meme descriptions; that our nonparanormal model is able to learn dense and continuous vision features jointly with sparse and discrete text features in a principled manner, outperforming various competitive baselines; that our system can generate meme descriptions using a simple pipeline. </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>William Yang Wang, Miaomiao Wen</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>C:\Users\Belov\source\repos\hse-rpa\articles\N15-1039.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Determinants of Meme Popularity</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Online social media have greatly affected the way in which we communicate with each other. However, little is known about what are the fundamental mechanisms driving dynamical information flow in online social systems. Here, we introduce a generative model for online sharing behavior and analytically show, using techniques from mathematical population genetics, that competition between memes for the limited resource of user attention leads to a type of self-organized criticality, with heavy-tailed distributions of meme popularity: a few memes "go viral" but the majority become only moderately popular. The time-dependent solutions of the model are shown to fit empirical micro-blogging data on hashtag usage, and to predict novel scaling features of the data. The presented framework, in contrast to purely empirical studies or simulation-based models, clearly distinguishes the roles of two distinct factors affecting meme popularity: the memory time of users and the connectivity structure of the social network. </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>J. Gleeson, Kevin P. O'Sullivan, R. Baños, Y. Moreno</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>C:\Users\Belov\source\repos\hse-rpa\articles\1501.05956.pdf.crdownload</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>The origin of the criticality in meme popularity distribution on complex networks</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Previous studies showed that the meme popularity distribution is described by a heavy-tailed distribution or a power-law, which is a characteristic feature of the criticality. Here, we study the origin of the criticality on non-growing and growing networks based on the competition induced criticality model. From the direct Mote Carlo simulations and the exact mapping into the position dependent biased random walk (PDBRW), we find that the meme popularity distribution satisfies a very robust power- law with exponent α = 3/2 if there is an innovation process. On the other hand, if there is no innovation, then we find that the meme popularity distribution is bounded and highly skewed for early transient time periods, while it satisfies a power-law with exponent α ≠ 3/2 for intermediate time periods. The exact mapping into PDBRW clearly shows that the balance between the creation of new memes by the innovation process and the extinction of old memes is the key factor for the criticality. We confirm that the balance for the criticality sustains for relatively small innovation rate. Therefore, the innovation processes with significantly influential memes should be the simple and fundamental processes which cause the critical distribution of the meme popularity in real social networks. </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Yup Kim, S. Park, S. Yook</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>C:\Users\Belov\source\repos\hse-rpa\articles\srep23484.pdf</t>
         </is>
       </c>
     </row>
